--- a/Stan344/Bug Examples.xlsx
+++ b/Stan344/Bug Examples.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Priority</t>
   </si>
@@ -128,6 +128,31 @@
 Expected result:  Get all woman clothing with size M
 Actual result: Loading icon, which does not go away. No results loaded
 </t>
+  </si>
+  <si>
+    <t>PC003</t>
+  </si>
+  <si>
+    <t>Error message on the Contact us page cannot be closed</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Error message on the Contact us page cannot be closed even though there is a "Close/ X button"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter http://automationpractice.com
+2. Click on Contact us                                                                                                                     2. Leave all the fields empty                                                                                                               3. Press the Send button
+Expected result:  Get an error message, which can be closed
+Actual result: The error message cannot be closed. The "close" button is non-usable
+</t>
+  </si>
+  <si>
+    <t>Contact us</t>
   </si>
 </sst>
 </file>
@@ -265,6 +290,44 @@
         <a:xfrm>
           <a:off x="4752975" y="28575"/>
           <a:ext cx="2247900" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1456968</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>638099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="11268075"/>
+          <a:ext cx="2857143" cy="609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -563,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,6 +896,122 @@
         <v>27</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B3"/>
